--- a/templates/workstemp.xlsx
+++ b/templates/workstemp.xlsx
@@ -1577,11 +1577,7 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="C5" s="39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="C5" s="39" t="inlineStr"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" s="42">
       <c r="B6" s="5" t="inlineStr">
@@ -1959,7 +1955,11 @@
           <t>Rough-In (Wireless &amp; CatV)</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr"/>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="20.25" customHeight="1" s="42">
       <c r="B55" s="4" t="inlineStr">

--- a/templates/workstemp.xlsx
+++ b/templates/workstemp.xlsx
@@ -1577,7 +1577,11 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="C5" s="39" t="inlineStr"/>
+      <c r="C5" s="39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" s="42">
       <c r="B6" s="5" t="inlineStr">
@@ -1955,11 +1959,7 @@
           <t>Rough-In (Wireless &amp; CatV)</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="C54" s="6" t="inlineStr"/>
     </row>
     <row r="55" ht="20.25" customHeight="1" s="42">
       <c r="B55" s="4" t="inlineStr">

--- a/templates/workstemp.xlsx
+++ b/templates/workstemp.xlsx
@@ -1579,7 +1579,7 @@
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/templates/workstemp.xlsx
+++ b/templates/workstemp.xlsx
@@ -1579,7 +1579,7 @@
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
